--- a/results-partial/HW_C009_120.xlsx
+++ b/results-partial/HW_C009_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.74685210548187</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.40482928311647</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.26591067776793</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.5267144014117</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.26594703081467</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.84287337998154</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.64072440206422</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.47671685291754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.72601770985651</v>
+        <v>27.74685210548187</v>
       </c>
       <c r="C3" t="n">
-        <v>29.37022439080682</v>
+        <v>29.40482928311647</v>
       </c>
       <c r="D3" t="n">
-        <v>29.21581668774196</v>
+        <v>29.26591067776793</v>
       </c>
       <c r="E3" t="n">
-        <v>29.48904143547139</v>
+        <v>29.5267144014117</v>
       </c>
       <c r="F3" t="n">
-        <v>29.21581668774196</v>
+        <v>29.26594703081467</v>
       </c>
       <c r="G3" t="n">
-        <v>27.82107224561465</v>
+        <v>28.06515118908976</v>
       </c>
       <c r="H3" t="n">
-        <v>29.64624443768461</v>
+        <v>29.64072440206422</v>
       </c>
       <c r="I3" t="n">
-        <v>29.48682875013215</v>
+        <v>29.47671685291754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.7472719319219</v>
+        <v>27.72601770985651</v>
       </c>
       <c r="C4" t="n">
-        <v>29.42175731483115</v>
+        <v>29.37022439080682</v>
       </c>
       <c r="D4" t="n">
-        <v>29.25716376885989</v>
+        <v>29.21581668774196</v>
       </c>
       <c r="E4" t="n">
-        <v>29.53203198123948</v>
+        <v>29.48904143547139</v>
       </c>
       <c r="F4" t="n">
-        <v>29.25724347510643</v>
+        <v>29.21581668774196</v>
       </c>
       <c r="G4" t="n">
-        <v>27.84435132494943</v>
+        <v>28.02722782433925</v>
       </c>
       <c r="H4" t="n">
-        <v>29.65172153444765</v>
+        <v>29.64624443768461</v>
       </c>
       <c r="I4" t="n">
-        <v>29.48617063050762</v>
+        <v>29.48682875013215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.74181502452763</v>
+        <v>27.7472719319219</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4147174178382</v>
+        <v>29.42175731483115</v>
       </c>
       <c r="D5" t="n">
-        <v>29.25408438011035</v>
+        <v>29.25716376885989</v>
       </c>
       <c r="E5" t="n">
-        <v>29.51276979447</v>
+        <v>29.53203198123948</v>
       </c>
       <c r="F5" t="n">
-        <v>29.25408438011035</v>
+        <v>29.25724347510643</v>
       </c>
       <c r="G5" t="n">
-        <v>27.83521594741925</v>
+        <v>28.04890097666108</v>
       </c>
       <c r="H5" t="n">
-        <v>29.68502840867663</v>
+        <v>29.65172153444765</v>
       </c>
       <c r="I5" t="n">
-        <v>29.50510270647873</v>
+        <v>29.48617063050762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.76465161124668</v>
+        <v>27.74181502452763</v>
       </c>
       <c r="C6" t="n">
-        <v>29.42276207027834</v>
+        <v>29.4147174178382</v>
       </c>
       <c r="D6" t="n">
-        <v>29.26828399510432</v>
+        <v>29.25408438011035</v>
       </c>
       <c r="E6" t="n">
-        <v>29.53525519366523</v>
+        <v>29.51276979447</v>
       </c>
       <c r="F6" t="n">
-        <v>29.26828399510432</v>
+        <v>29.25408438011035</v>
       </c>
       <c r="G6" t="n">
-        <v>27.86684114377995</v>
+        <v>28.04862172057379</v>
       </c>
       <c r="H6" t="n">
-        <v>29.66746913951022</v>
+        <v>29.68502840867663</v>
       </c>
       <c r="I6" t="n">
-        <v>29.48741586850321</v>
+        <v>29.50510270647873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.75525077954714</v>
+        <v>27.76465161124668</v>
       </c>
       <c r="C7" t="n">
-        <v>29.45812642725017</v>
+        <v>29.42276207027834</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3105710225026</v>
+        <v>29.26828399510432</v>
       </c>
       <c r="E7" t="n">
-        <v>29.57491234703241</v>
+        <v>29.53525519366523</v>
       </c>
       <c r="F7" t="n">
-        <v>29.3105710225026</v>
+        <v>29.26828399510432</v>
       </c>
       <c r="G7" t="n">
-        <v>27.85039735683775</v>
+        <v>28.04563551088085</v>
       </c>
       <c r="H7" t="n">
-        <v>29.69195915441597</v>
+        <v>29.66746913951022</v>
       </c>
       <c r="I7" t="n">
-        <v>29.5161049584247</v>
+        <v>29.48741586850321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.72720596662388</v>
+        <v>27.75525077954714</v>
       </c>
       <c r="C8" t="n">
-        <v>29.41539254167823</v>
+        <v>29.45812642725017</v>
       </c>
       <c r="D8" t="n">
-        <v>29.25115245507487</v>
+        <v>29.3105710225026</v>
       </c>
       <c r="E8" t="n">
-        <v>29.54922467965292</v>
+        <v>29.57491234703241</v>
       </c>
       <c r="F8" t="n">
-        <v>29.25115245507487</v>
+        <v>29.3105710225026</v>
       </c>
       <c r="G8" t="n">
-        <v>27.82493366512223</v>
+        <v>28.09111426031832</v>
       </c>
       <c r="H8" t="n">
-        <v>29.67984825163132</v>
+        <v>29.69195915441597</v>
       </c>
       <c r="I8" t="n">
-        <v>29.50812796519526</v>
+        <v>29.5161049584247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.75242302606005</v>
+        <v>27.72720596662388</v>
       </c>
       <c r="C9" t="n">
-        <v>29.42851891250924</v>
+        <v>29.41539254167823</v>
       </c>
       <c r="D9" t="n">
-        <v>29.25842696430991</v>
+        <v>29.25115245507487</v>
       </c>
       <c r="E9" t="n">
-        <v>29.5541423711876</v>
+        <v>29.54922467965292</v>
       </c>
       <c r="F9" t="n">
-        <v>29.25847168592691</v>
+        <v>29.25115245507487</v>
       </c>
       <c r="G9" t="n">
-        <v>27.84970148429787</v>
+        <v>28.05955955186877</v>
       </c>
       <c r="H9" t="n">
-        <v>29.68480882278876</v>
+        <v>29.67984825163132</v>
       </c>
       <c r="I9" t="n">
-        <v>29.50400560309586</v>
+        <v>29.50812796519526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.70276239876468</v>
+        <v>27.75242302606005</v>
       </c>
       <c r="C10" t="n">
-        <v>29.38144823567951</v>
+        <v>29.42851891250924</v>
       </c>
       <c r="D10" t="n">
-        <v>29.22313637083228</v>
+        <v>29.25842696430991</v>
       </c>
       <c r="E10" t="n">
-        <v>29.49373603683267</v>
+        <v>29.5541423711876</v>
       </c>
       <c r="F10" t="n">
-        <v>29.22313637083228</v>
+        <v>29.25847168592691</v>
       </c>
       <c r="G10" t="n">
-        <v>27.79965049622053</v>
+        <v>28.0626864523068</v>
       </c>
       <c r="H10" t="n">
-        <v>29.64011819060485</v>
+        <v>29.68480882278876</v>
       </c>
       <c r="I10" t="n">
-        <v>29.47795803331228</v>
+        <v>29.50400560309586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.70276239876468</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.38144823567951</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.22313637083228</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.49373603683267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.22313637083228</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.04115755008089</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.64011819060485</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.47795803331228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.74171756356102</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>29.39548963584105</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>29.25631164475938</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>29.5408197194141</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>29.25646058494684</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.84005385756882</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.05792006721137</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.66125357605023</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>29.50492966540072</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.74059681175914</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.41132662298292</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.25608579670635</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29.53086479603775</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.25611676881613</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.8375090901792</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.66491759178745</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29.49533610339681</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.670729811223772</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.515488984947204</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.790267984278604</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.515519957056984</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.09691227842006001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.924320780028303</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.754739291637662</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9229499563523775</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.946441636279161</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9451798352761437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9490293340207183</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9451803841519777</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9253936600056871</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.945337292571357</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9432206004047217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9226160673091315</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9459628199535256</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9444668447101467</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9486396398508075</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9444668447101467</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9246343738483922</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9454295821462932</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9433666474753931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9229299561371177</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9463941541568341</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9448000436635681</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9486572047795475</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9448013314219378</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9244577809640206</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.945385543686173</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9435827762854244</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9227059944794659</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9463544742803222</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9447238055225426</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9486030714271367</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9447238055225426</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9245533447265243</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9457307438738514</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9437642300825922</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9231109664032866</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9464147667357854</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9449583901886972</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9487898286704443</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9449583901886972</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9246778528209295</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9453485319483282</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9435234074887884</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9228256897177286</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9468977103528058</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9452725140455674</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.949246476475209</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9452725140455674</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9255002021633287</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9460666139461046</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9440237553173131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9223141550309887</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9461487919664848</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9443868260678043</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9487419022536756</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9443868260678043</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9249232731248376</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9455207714838265</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9433353580394194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9228001707497201</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9463713273772678</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.944426013218655</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9487104609619612</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9444267884569434</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9250802007616729</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9455763847099842</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9436703526592035</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9223136307938613</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9461946349184819</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9445412174292896</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9486358972685531</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9445412174292896</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9248623120770328</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9454462535877423</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9438099240407042</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9227877613082213</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.946075800567452</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9445281569780312</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9485455370019246</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.944529318188764</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9247844907415996</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9454694814534407</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9436854830273974</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.64757907530271</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.61310314275408</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.36282807514767</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26.66197863083347</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.36282807514767</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.3283527397125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.75139514928111</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.63964470218848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6786220366336</v>
+        <v>19.64757907530271</v>
       </c>
       <c r="C3" t="n">
-        <v>26.58299934103618</v>
+        <v>26.61310314275408</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3518642639379</v>
+        <v>26.36282807514767</v>
       </c>
       <c r="E3" t="n">
-        <v>26.63395281818156</v>
+        <v>26.66197863083347</v>
       </c>
       <c r="F3" t="n">
-        <v>26.3518642639379</v>
+        <v>26.36282807514767</v>
       </c>
       <c r="G3" t="n">
-        <v>20.36021471286366</v>
+        <v>23.70655311790595</v>
       </c>
       <c r="H3" t="n">
-        <v>25.73981064852625</v>
+        <v>25.75139514928111</v>
       </c>
       <c r="I3" t="n">
-        <v>24.63871146386062</v>
+        <v>24.63964470218848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.64580210764992</v>
+        <v>19.6786220366336</v>
       </c>
       <c r="C4" t="n">
-        <v>26.56246045439266</v>
+        <v>26.58299934103618</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33210010735921</v>
+        <v>26.3518642639379</v>
       </c>
       <c r="E4" t="n">
-        <v>26.63488296864528</v>
+        <v>26.63395281818156</v>
       </c>
       <c r="F4" t="n">
-        <v>26.33210010735921</v>
+        <v>26.3518642639379</v>
       </c>
       <c r="G4" t="n">
-        <v>20.3285268963956</v>
+        <v>23.71467893475655</v>
       </c>
       <c r="H4" t="n">
-        <v>25.73641512225743</v>
+        <v>25.73981064852625</v>
       </c>
       <c r="I4" t="n">
-        <v>24.64951868131816</v>
+        <v>24.63871146386062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.66381294214744</v>
+        <v>19.64580210764992</v>
       </c>
       <c r="C5" t="n">
-        <v>26.59776799768573</v>
+        <v>26.56246045439266</v>
       </c>
       <c r="D5" t="n">
-        <v>26.32991370956535</v>
+        <v>26.33210010735921</v>
       </c>
       <c r="E5" t="n">
-        <v>26.65479035613536</v>
+        <v>26.63488296864528</v>
       </c>
       <c r="F5" t="n">
-        <v>26.32991370956535</v>
+        <v>26.33210010735921</v>
       </c>
       <c r="G5" t="n">
-        <v>20.34514137227227</v>
+        <v>23.70445942149447</v>
       </c>
       <c r="H5" t="n">
-        <v>25.77400236892506</v>
+        <v>25.73641512225743</v>
       </c>
       <c r="I5" t="n">
-        <v>24.68873151081784</v>
+        <v>24.64951868131816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.65688034522016</v>
+        <v>19.66381294214744</v>
       </c>
       <c r="C6" t="n">
-        <v>26.58874513880901</v>
+        <v>26.59776799768573</v>
       </c>
       <c r="D6" t="n">
-        <v>26.37893012438909</v>
+        <v>26.32991370956535</v>
       </c>
       <c r="E6" t="n">
-        <v>26.63514003221914</v>
+        <v>26.65479035613536</v>
       </c>
       <c r="F6" t="n">
-        <v>26.37893012438909</v>
+        <v>26.32991370956535</v>
       </c>
       <c r="G6" t="n">
-        <v>20.33369502590131</v>
+        <v>23.73072295953103</v>
       </c>
       <c r="H6" t="n">
-        <v>25.70572481385213</v>
+        <v>25.77400236892506</v>
       </c>
       <c r="I6" t="n">
-        <v>24.60315975267766</v>
+        <v>24.68873151081784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.66018159374165</v>
+        <v>19.65688034522016</v>
       </c>
       <c r="C7" t="n">
-        <v>26.58016406175696</v>
+        <v>26.58874513880901</v>
       </c>
       <c r="D7" t="n">
-        <v>26.31593986149589</v>
+        <v>26.37893012438909</v>
       </c>
       <c r="E7" t="n">
-        <v>26.63723798324192</v>
+        <v>26.63514003221914</v>
       </c>
       <c r="F7" t="n">
-        <v>26.31593986149589</v>
+        <v>26.37893012438909</v>
       </c>
       <c r="G7" t="n">
-        <v>20.3424314584056</v>
+        <v>23.68042769658746</v>
       </c>
       <c r="H7" t="n">
-        <v>25.72416372758671</v>
+        <v>25.70572481385213</v>
       </c>
       <c r="I7" t="n">
-        <v>24.62771960733516</v>
+        <v>24.60315975267766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.64581118505269</v>
+        <v>19.66018159374165</v>
       </c>
       <c r="C8" t="n">
-        <v>26.58648194798822</v>
+        <v>26.58016406175696</v>
       </c>
       <c r="D8" t="n">
-        <v>26.35744157365082</v>
+        <v>26.31593986149589</v>
       </c>
       <c r="E8" t="n">
-        <v>26.66310688230663</v>
+        <v>26.63723798324192</v>
       </c>
       <c r="F8" t="n">
-        <v>26.35744157365082</v>
+        <v>26.31593986149589</v>
       </c>
       <c r="G8" t="n">
-        <v>20.33168715252552</v>
+        <v>23.70262589338866</v>
       </c>
       <c r="H8" t="n">
-        <v>25.76654029806438</v>
+        <v>25.72416372758671</v>
       </c>
       <c r="I8" t="n">
-        <v>24.68932236624421</v>
+        <v>24.62771960733516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.65858708914106</v>
+        <v>19.64581118505269</v>
       </c>
       <c r="C9" t="n">
-        <v>26.62725732912733</v>
+        <v>26.58648194798822</v>
       </c>
       <c r="D9" t="n">
-        <v>26.37768552687156</v>
+        <v>26.35744157365082</v>
       </c>
       <c r="E9" t="n">
-        <v>26.68532867795527</v>
+        <v>26.66310688230663</v>
       </c>
       <c r="F9" t="n">
-        <v>26.37766315004381</v>
+        <v>26.35744157365082</v>
       </c>
       <c r="G9" t="n">
-        <v>20.33897635824895</v>
+        <v>23.72515071495117</v>
       </c>
       <c r="H9" t="n">
-        <v>25.78250589836954</v>
+        <v>25.76654029806438</v>
       </c>
       <c r="I9" t="n">
-        <v>24.68545612796046</v>
+        <v>24.68932236624421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.66137067708744</v>
+        <v>19.65858708914106</v>
       </c>
       <c r="C10" t="n">
-        <v>26.60844625947868</v>
+        <v>26.62725732912733</v>
       </c>
       <c r="D10" t="n">
-        <v>26.35668379995408</v>
+        <v>26.37768552687156</v>
       </c>
       <c r="E10" t="n">
-        <v>26.67685037326033</v>
+        <v>26.68532867795527</v>
       </c>
       <c r="F10" t="n">
-        <v>26.35669657877154</v>
+        <v>26.37766315004381</v>
       </c>
       <c r="G10" t="n">
-        <v>20.35694500499648</v>
+        <v>23.74958674836623</v>
       </c>
       <c r="H10" t="n">
-        <v>25.77153838656623</v>
+        <v>25.78250589836954</v>
       </c>
       <c r="I10" t="n">
-        <v>24.67432028026673</v>
+        <v>24.68545612796046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.66137067708744</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.60844625947868</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.35668379995408</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.67685037326033</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.35669657877154</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.73291008645004</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.77153838656623</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.67432028026673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.65273667786553</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>26.60837865215271</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>26.36534254505556</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>26.65034111760915</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>26.36535930365937</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.3363223681559</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.72129739987741</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.76661543197593</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>24.66264436495759</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.65713837298422</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.59558043251815</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.35287295874271</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.65336098403881</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.35287367480207</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.34022930894778</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.75187118454048</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24.65592288576269</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.938442059533934</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.69573458575849</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.996222611054588</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.695735301817844</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6830909359635555</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.094732811556256</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.998784512778471</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6727083023460357</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8928433809490851</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8876005924292749</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8919971497220809</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8876005924292749</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8015602445187304</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8513755017290114</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8062073634761561</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6740833675497281</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8917848306353392</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8873099777704481</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8912868497004378</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8873099777704481</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8018147670111079</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8506477137197737</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8046338498620493</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6720976068144426</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8913263022030139</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8868098793566541</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8916526085352682</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8868098793566541</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8009941810056664</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8499955761142184</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8050380003305183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6737228282413353</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8923968005431506</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8874169117035874</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8919096503762856</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8874169117035874</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8028909203590826</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8517633077193965</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8077869850102675</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6723653213642439</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8912755316632394</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8876440564261227</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8909287533966209</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8876440564261227</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8008063156680295</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8491880830038615</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8029861695352357</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6733113527505067</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8915407116238965</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8878229702258547</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8912362837511918</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8878229702258547</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8025026017868765</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8500961363879206</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8046843377255782</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6732225747912595</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8925192420819686</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8880369455882595</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8926380625779669</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8880369455882595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8030953503045726</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8515341964429788</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8086360963547595</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6738048846509971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8937658534772553</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8895001860432131</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.893011391687266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8894997715044446</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8036500816795464</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8519899024486257</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8073590079372553</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6739057152762686</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.893176346005679</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.888028038009351</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8927531293918781</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8880284744016694</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.803042810384565</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8528627018602098</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8071423878601693</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6730553975200368</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8931741755811156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8883504564738388</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8920304987036012</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8883505436186239</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8027907917390131</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8517077662146918</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8062999879112541</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.47400272728167</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.29150920851164</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.86612508779434</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.00779766123447</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.86611570786338</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.77115321778</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.46367997847292</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.16303095739262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.47863409531755</v>
+        <v>14.47400272728167</v>
       </c>
       <c r="C3" t="n">
-        <v>23.27314247456536</v>
+        <v>23.29150920851164</v>
       </c>
       <c r="D3" t="n">
-        <v>22.86711261762719</v>
+        <v>22.86612508779434</v>
       </c>
       <c r="E3" t="n">
-        <v>23.00061342648031</v>
+        <v>23.00779766123447</v>
       </c>
       <c r="F3" t="n">
-        <v>22.86711261762719</v>
+        <v>22.86611570786338</v>
       </c>
       <c r="G3" t="n">
-        <v>16.77567196400217</v>
+        <v>19.81369137358715</v>
       </c>
       <c r="H3" t="n">
-        <v>21.45417981805793</v>
+        <v>21.46367997847292</v>
       </c>
       <c r="I3" t="n">
-        <v>20.1803572246286</v>
+        <v>20.16303095739262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.45419916273521</v>
+        <v>14.47863409531755</v>
       </c>
       <c r="C4" t="n">
-        <v>23.2553861355681</v>
+        <v>23.27314247456536</v>
       </c>
       <c r="D4" t="n">
-        <v>22.86003912234971</v>
+        <v>22.86711261762719</v>
       </c>
       <c r="E4" t="n">
-        <v>22.96061819884137</v>
+        <v>23.00061342648031</v>
       </c>
       <c r="F4" t="n">
-        <v>22.86003912234971</v>
+        <v>22.86711261762719</v>
       </c>
       <c r="G4" t="n">
-        <v>16.74293983734771</v>
+        <v>19.82185624436509</v>
       </c>
       <c r="H4" t="n">
-        <v>21.43588377918806</v>
+        <v>21.45417981805793</v>
       </c>
       <c r="I4" t="n">
-        <v>20.13450346831693</v>
+        <v>20.1803572246286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.48091838115517</v>
+        <v>14.45419916273521</v>
       </c>
       <c r="C5" t="n">
-        <v>23.23115023358694</v>
+        <v>23.2553861355681</v>
       </c>
       <c r="D5" t="n">
-        <v>22.83839634131084</v>
+        <v>22.86003912234971</v>
       </c>
       <c r="E5" t="n">
-        <v>22.95795721369343</v>
+        <v>22.96061819884137</v>
       </c>
       <c r="F5" t="n">
-        <v>22.83839634131084</v>
+        <v>22.86003912234971</v>
       </c>
       <c r="G5" t="n">
-        <v>16.76299086462215</v>
+        <v>19.7821936312067</v>
       </c>
       <c r="H5" t="n">
-        <v>21.4336331281387</v>
+        <v>21.43588377918806</v>
       </c>
       <c r="I5" t="n">
-        <v>20.14537133142452</v>
+        <v>20.13450346831693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4808618836024</v>
+        <v>14.48091838115517</v>
       </c>
       <c r="C6" t="n">
-        <v>23.23799485111437</v>
+        <v>23.23115023358694</v>
       </c>
       <c r="D6" t="n">
-        <v>22.83599037902855</v>
+        <v>22.83839634131084</v>
       </c>
       <c r="E6" t="n">
-        <v>22.95922145106027</v>
+        <v>22.95795721369343</v>
       </c>
       <c r="F6" t="n">
-        <v>22.83598653603715</v>
+        <v>22.83839634131084</v>
       </c>
       <c r="G6" t="n">
-        <v>16.76603178418298</v>
+        <v>19.79631805875499</v>
       </c>
       <c r="H6" t="n">
-        <v>21.42633938928358</v>
+        <v>21.4336331281387</v>
       </c>
       <c r="I6" t="n">
-        <v>20.12848427765734</v>
+        <v>20.14537133142452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.46120866134584</v>
+        <v>14.4808618836024</v>
       </c>
       <c r="C7" t="n">
-        <v>23.24304549597457</v>
+        <v>23.23799485111437</v>
       </c>
       <c r="D7" t="n">
-        <v>22.85065817741898</v>
+        <v>22.83599037902855</v>
       </c>
       <c r="E7" t="n">
-        <v>22.96029025779603</v>
+        <v>22.95922145106027</v>
       </c>
       <c r="F7" t="n">
-        <v>22.85065817741898</v>
+        <v>22.83598653603715</v>
       </c>
       <c r="G7" t="n">
-        <v>16.73904271965839</v>
+        <v>19.78989292627177</v>
       </c>
       <c r="H7" t="n">
-        <v>21.42286026209405</v>
+        <v>21.42633938928358</v>
       </c>
       <c r="I7" t="n">
-        <v>20.14902014947218</v>
+        <v>20.12848427765734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.50787575119969</v>
+        <v>14.46120866134584</v>
       </c>
       <c r="C8" t="n">
-        <v>23.28333626968732</v>
+        <v>23.24304549597457</v>
       </c>
       <c r="D8" t="n">
-        <v>22.8733373495735</v>
+        <v>22.85065817741898</v>
       </c>
       <c r="E8" t="n">
-        <v>23.00072609994915</v>
+        <v>22.96029025779603</v>
       </c>
       <c r="F8" t="n">
-        <v>22.8733373495735</v>
+        <v>22.85065817741898</v>
       </c>
       <c r="G8" t="n">
-        <v>16.79524743907734</v>
+        <v>19.79187696813791</v>
       </c>
       <c r="H8" t="n">
-        <v>21.48007564709545</v>
+        <v>21.42286026209405</v>
       </c>
       <c r="I8" t="n">
-        <v>20.18716228585678</v>
+        <v>20.14902014947218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.48784222368089</v>
+        <v>14.50787575119969</v>
       </c>
       <c r="C9" t="n">
-        <v>23.27890624027285</v>
+        <v>23.28333626968732</v>
       </c>
       <c r="D9" t="n">
-        <v>22.83169432564319</v>
+        <v>22.8733373495735</v>
       </c>
       <c r="E9" t="n">
-        <v>22.99579588947236</v>
+        <v>23.00072609994915</v>
       </c>
       <c r="F9" t="n">
-        <v>22.83169432564319</v>
+        <v>22.8733373495735</v>
       </c>
       <c r="G9" t="n">
-        <v>16.77554773989369</v>
+        <v>19.82823107054027</v>
       </c>
       <c r="H9" t="n">
-        <v>21.46533610255921</v>
+        <v>21.48007564709545</v>
       </c>
       <c r="I9" t="n">
-        <v>20.16546124025025</v>
+        <v>20.18716228585678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.48527876073434</v>
+        <v>14.48784222368089</v>
       </c>
       <c r="C10" t="n">
-        <v>23.26665264840295</v>
+        <v>23.27890624027285</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8737582729139</v>
+        <v>22.83169432564319</v>
       </c>
       <c r="E10" t="n">
-        <v>22.99892324145237</v>
+        <v>22.99579588947236</v>
       </c>
       <c r="F10" t="n">
-        <v>22.8737582729139</v>
+        <v>22.83169432564319</v>
       </c>
       <c r="G10" t="n">
-        <v>16.76882744880028</v>
+        <v>19.82231428710509</v>
       </c>
       <c r="H10" t="n">
-        <v>21.47840060112332</v>
+        <v>21.46533610255921</v>
       </c>
       <c r="I10" t="n">
-        <v>20.18473963704806</v>
+        <v>20.16546124025025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.48527876073434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.26665264840295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.8737582729139</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.99892324145237</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.8737582729139</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.82638681185909</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.47840060112332</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.18473963704806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.49820341914615</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>23.30807790996901</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>22.87812306916607</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>23.00820783037859</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>22.87812306916607</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.78646009795644</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>19.82779068727983</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.48126964730731</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>20.17137122087394</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.48090250661989</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.26692014676531</v>
-      </c>
-      <c r="D12" t="n">
-        <v>22.85752347428262</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.98501512703583</v>
-      </c>
-      <c r="F12" t="n">
-        <v>22.85752215199039</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.76839131133212</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21.45416583533205</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.16095017929212</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.786017640145419</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.376620967662733</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.504112620415944</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.376619645370498</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.287488804712227</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.973263328712163</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.680047672672233</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4005339953599638</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7639942718700486</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7269033172295412</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7424404005669161</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7269028825118169</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5658800927444122</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.636593922476474</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5352023621566949</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4009139212697536</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7634543034733646</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7246625247685723</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7415693026193717</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7246625247685723</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5655237196335374</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6363423801048489</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5371718350825485</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3985020274577521</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7613176837885074</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7220030466399651</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7376782234777766</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7220030466399651</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5633508002195732</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6351699534745689</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5335510095916804</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3999525491203111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7597964871349877</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7251499397008364</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7372866710166769</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7251499397008364</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5640321837673302</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.635927589619796</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5349043800336597</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4004287345950728</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7613597157107193</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7250692476308808</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7382448821776578</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7250685606716617</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.563066218266597</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6351598402062558</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.53336038420406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3991800455556505</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7615617069392602</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7209225717963309</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7389312662810082</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7209225717963309</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5642700750085557</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6342584451512276</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5347635966005672</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4018890668375764</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7632590538670968</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7270842700564012</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7388798489954891</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7270842700564012</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5664690208625164</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6370373182226932</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.537195759844101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4014918587353745</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7632808358902172</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7256483064999588</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7405516104169192</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7256483064999588</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5668060593832402</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6368152362864126</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5372145567542944</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.401729389932359</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7628440271283329</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7274845182285805</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7403988593926183</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7274845182285805</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.565798330951697</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6381727018918913</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.537629293470234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4022176711980425</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7645072753652611</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7307535175190973</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7433765610010404</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7307535175190973</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5689010474347389</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6397924370653527</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5407996535972653</v>
       </c>
     </row>
   </sheetData>
